--- a/medicine/Médecine vétérinaire/Jean-Pierre_Dick/Jean-Pierre_Dick.xlsx
+++ b/medicine/Médecine vétérinaire/Jean-Pierre_Dick/Jean-Pierre_Dick.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Jean-Pierre Dick, né le 8 octobre 1965 à Nice, est un navigateur et un skipper professionnel français.
-Il est notamment vainqueur de la Barcelona World Race à 2 reprises (2008 et 2011) et de la Transat Jacques-Vabre à quatre reprises[1] dans la catégorie IMOCA (2003, 2005, 2011 et 2017), il est élu « marin de l'année » en 2011.
+Il est notamment vainqueur de la Barcelona World Race à 2 reprises (2008 et 2011) et de la Transat Jacques-Vabre à quatre reprises dans la catégorie IMOCA (2003, 2005, 2011 et 2017), il est élu « marin de l'année » en 2011.
 </t>
         </is>
       </c>
@@ -513,14 +525,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Pierre Dick est le troisième de quatre enfants et comme son père (Pierre-Richard Dick, fondateur des laboratoires Virbac), il est docteur vétérinaire et diplômé d'HEC (MBA), mais sa passion de la mer le fait se distinguer comme navigateur dans les courses au large depuis 1989.
-En solitaire, lors de sa première participation au Vendée Globe en 2004-2005, il finit 6e. En 2008-2009, il participe de nouveau au Vendée Globe et abandonne sur avarie de safran[2].
+En solitaire, lors de sa première participation au Vendée Globe en 2004-2005, il finit 6e. En 2008-2009, il participe de nouveau au Vendée Globe et abandonne sur avarie de safran.
 Il a remporté un certain nombre de courses de prestige, notamment en double. On peut citer la Transat Jacques-Vabre en 2003, 2005, 2011 et 2017, la Barcelona World Race en 2008 et 2011.
 Pour sa troisième participation au Vendée Globe, il finit 4e après avoir longtemps été dans le trio de tête. La perte de la quille entre les îles du Cap Vert et les Açores lui a fait perdre tout espoir de podium, mais il réussit l'exploit de finir la course en parcourant  2 643 milles sans quille.
-En 2014 il se lance dans un nouveau projet de tour du monde : St Michel-Virbac, nom du nouveau bateau du skipper azuréen dessiné par Verdier VPLP.  St Michel-Virbac court les championnats IMOCA Ocean Masters de 2015 à 2017, avec en point d’orgue le Vendée Globe 2016-2017, dont il prend la quatrième place, avant d'enchaîner fin 2017 une quatrième victoire sur la Transat Jacques Vabre, avec Yann Eliès, auquel il cède la barre de son bateau, confiant alors son envie de "passer à autre chose"[3]. Avec sa société Absolute Dreamer, il développe notamment un nouveau bateau volant[4] à foils, l'ETF26, créant du même coup un nouveau circuit.
-Il participe à la Route du Rhum 2022, dans la catégorie Rhum Mono. Le 13 novembre, au 4e jour de course, alors en première position de sa catégorie, il est dérouté par la direction de course pour aller porter secours à Brieuc Maisonneuve, dont le catamaran de la catégorie Rhum Multi a chaviré[5].
+En 2014 il se lance dans un nouveau projet de tour du monde : St Michel-Virbac, nom du nouveau bateau du skipper azuréen dessiné par Verdier VPLP.  St Michel-Virbac court les championnats IMOCA Ocean Masters de 2015 à 2017, avec en point d’orgue le Vendée Globe 2016-2017, dont il prend la quatrième place, avant d'enchaîner fin 2017 une quatrième victoire sur la Transat Jacques Vabre, avec Yann Eliès, auquel il cède la barre de son bateau, confiant alors son envie de "passer à autre chose". Avec sa société Absolute Dreamer, il développe notamment un nouveau bateau volant à foils, l'ETF26, créant du même coup un nouveau circuit.
+Il participe à la Route du Rhum 2022, dans la catégorie Rhum Mono. Le 13 novembre, au 4e jour de course, alors en première position de sa catégorie, il est dérouté par la direction de course pour aller porter secours à Brieuc Maisonneuve, dont le catamaran de la catégorie Rhum Multi a chaviré.
 </t>
         </is>
       </c>
@@ -549,7 +563,9 @@
           <t>Palmarès</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1989 : vainqueur du Spi Ouest France
 1992 :
@@ -590,7 +606,7 @@
 2012 :
 vainqueur Trophée Azimut,
 vainqueur de la 1re étape de l'Europa Warm Up (en équipage) à bord de Virbac Paprec 3'
-2013 : 4e de la 7e édition du Vendée Globe sur le monocoque 60 pieds IMOCA Virbac Paprec 3 après 86 jours et 3 heures de course en ayant parcouru un total de 27 734 miles dont les 2 643 derniers sans quille[6]
+2013 : 4e de la 7e édition du Vendée Globe sur le monocoque 60 pieds IMOCA Virbac Paprec 3 après 86 jours et 3 heures de course en ayant parcouru un total de 27 734 miles dont les 2 643 derniers sans quille
 2015 :
 vainqueur Round the Island Race
 vainqueur National Open Mach sur l'Open 7.50 StMichel-Virbac
@@ -625,10 +641,12 @@
           <t>Record</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Détenteur du record de distance à la voile en 24 heures en double en monocoque (60 pieds IMOCA) avec 506.33 milles marins (21,1 nœuds de moyenne) les 21-22 janvier 2011 lors de la Barcelona World Race
-Détenteur du record de distance à la voile en 24 heures en solitaire en Monocoque (60 pieds IMOCA) avec 517,23 milles marins (21,55 nœuds de moyenne) [7] parcourus entre le 30 novembre et le 9 décembre 2012 lors du Vendée Globe 2012-2013. Le record est en cours de validation par le WSSRC[8].</t>
+Détenteur du record de distance à la voile en 24 heures en solitaire en Monocoque (60 pieds IMOCA) avec 517,23 milles marins (21,55 nœuds de moyenne)  parcourus entre le 30 novembre et le 9 décembre 2012 lors du Vendée Globe 2012-2013. Le record est en cours de validation par le WSSRC.</t>
         </is>
       </c>
     </row>
@@ -656,10 +674,12 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Élu marin de l'année 2011[9] par ses pairs et est fait chevalier de l'ordre national du Mérite[10].
-Honoré par le Cruising Club of America en recevant le « Rod Stephens Trophy 2013 »[11], au Yacht Club de New York.</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Élu marin de l'année 2011 par ses pairs et est fait chevalier de l'ordre national du Mérite.
+Honoré par le Cruising Club of America en recevant le « Rod Stephens Trophy 2013 », au Yacht Club de New York.</t>
         </is>
       </c>
     </row>
